--- a/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/3_Line_of_Defense/output_ad_xyz_AuditReview_20211230_Maurice.Emp26@xyz.com.xlsx
+++ b/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/3_Line_of_Defense/output_ad_xyz_AuditReview_20211230_Maurice.Emp26@xyz.com.xlsx
@@ -17,112 +17,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="202">
   <si>
+    <t>AD_Privileged_Access</t>
+  </si>
+  <si>
+    <t>HR_Department_Name</t>
+  </si>
+  <si>
+    <t>HR_Manage_Email</t>
+  </si>
+  <si>
+    <t>AD_Lastname</t>
+  </si>
+  <si>
     <t>HR_Last_Name</t>
   </si>
   <si>
+    <t>zMatched</t>
+  </si>
+  <si>
+    <t>AD_Unique_AD_Departments</t>
+  </si>
+  <si>
+    <t>AD_WhenChanged</t>
+  </si>
+  <si>
+    <t>HR_Record_Type</t>
+  </si>
+  <si>
+    <t>AD_AccountExpiry</t>
+  </si>
+  <si>
+    <t>AD_EmailAddress</t>
+  </si>
+  <si>
+    <t>AD_Firstname</t>
+  </si>
+  <si>
+    <t>AD_Enabled</t>
+  </si>
+  <si>
+    <t>AD_DisplayName</t>
+  </si>
+  <si>
     <t>HR_Work_Email</t>
   </si>
   <si>
+    <t>AD_xyz_Grp_Tags</t>
+  </si>
+  <si>
+    <t>HR_Status</t>
+  </si>
+  <si>
+    <t>AD_Passwordset</t>
+  </si>
+  <si>
+    <t>HR_Termination_Date</t>
+  </si>
+  <si>
+    <t>AD_Description</t>
+  </si>
+  <si>
+    <t>HR_Employee_No</t>
+  </si>
+  <si>
+    <t>zDays_SinceLastLogonDate</t>
+  </si>
+  <si>
     <t>AD_CreateTimeStamp</t>
   </si>
   <si>
+    <t>AD_Company</t>
+  </si>
+  <si>
+    <t>AD_Department</t>
+  </si>
+  <si>
+    <t>AD_WhenCreated</t>
+  </si>
+  <si>
+    <t>zDays_SincePswdReset</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenCreated</t>
+  </si>
+  <si>
+    <t>zAD_User_Status</t>
+  </si>
+  <si>
+    <t>AD_SamAccountName</t>
+  </si>
+  <si>
+    <t>HR_First_Name</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenChanged</t>
+  </si>
+  <si>
+    <t>AD_LastLogonDate</t>
+  </si>
+  <si>
+    <t>HR_Division</t>
+  </si>
+  <si>
     <t>zTerminated_User_ActiveAD</t>
   </si>
   <si>
-    <t>zDays_SinceWhenCreated</t>
-  </si>
-  <si>
-    <t>HR_Record_Type</t>
-  </si>
-  <si>
-    <t>AD_Privileged_Access</t>
-  </si>
-  <si>
-    <t>AD_AccountExpiry</t>
-  </si>
-  <si>
-    <t>AD_WhenCreated</t>
-  </si>
-  <si>
-    <t>AD_WhenChanged</t>
-  </si>
-  <si>
-    <t>AD_xyz_Grp_Tags</t>
-  </si>
-  <si>
-    <t>zAD_User_Status</t>
-  </si>
-  <si>
-    <t>AD_Passwordset</t>
-  </si>
-  <si>
-    <t>AD_Company</t>
-  </si>
-  <si>
-    <t>AD_SamAccountName</t>
-  </si>
-  <si>
-    <t>AD_Unique_AD_Departments</t>
-  </si>
-  <si>
-    <t>AD_Department</t>
-  </si>
-  <si>
-    <t>HR_Division</t>
-  </si>
-  <si>
-    <t>HR_First_Name</t>
-  </si>
-  <si>
-    <t>AD_Firstname</t>
-  </si>
-  <si>
-    <t>HR_Department_Name</t>
-  </si>
-  <si>
-    <t>HR_Employee_No</t>
-  </si>
-  <si>
-    <t>HR_Termination_Date</t>
-  </si>
-  <si>
-    <t>zDays_SinceWhenChanged</t>
-  </si>
-  <si>
     <t>AD_xyz_Dept_Tags</t>
   </si>
   <si>
-    <t>zMatched</t>
-  </si>
-  <si>
-    <t>AD_Lastname</t>
-  </si>
-  <si>
-    <t>zDays_SincePswdReset</t>
-  </si>
-  <si>
-    <t>AD_Enabled</t>
-  </si>
-  <si>
-    <t>AD_EmailAddress</t>
-  </si>
-  <si>
-    <t>AD_Description</t>
-  </si>
-  <si>
-    <t>zDays_SinceLastLogonDate</t>
-  </si>
-  <si>
-    <t>AD_LastLogonDate</t>
-  </si>
-  <si>
-    <t>HR_Manage_Email</t>
-  </si>
-  <si>
-    <t>HR_Status</t>
-  </si>
-  <si>
-    <t>AD_DisplayName</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>AI/ML</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>AZURE</t>
+  </si>
+  <si>
+    <t>CRM product</t>
+  </si>
+  <si>
+    <t>Sat.Emp5@xyz.com</t>
+  </si>
+  <si>
+    <t>Pal.Emp15@xyz.com</t>
   </si>
   <si>
     <t>Emp27</t>
@@ -158,6 +182,51 @@
     <t>Emp41</t>
   </si>
   <si>
+    <t>Emp1</t>
+  </si>
+  <si>
+    <t>Emp10</t>
+  </si>
+  <si>
+    <t>Emp25</t>
+  </si>
+  <si>
+    <t>Emp33</t>
+  </si>
+  <si>
+    <t>Emp42</t>
+  </si>
+  <si>
+    <t>Contr1</t>
+  </si>
+  <si>
+    <t>HR_Match</t>
+  </si>
+  <si>
+    <t>MisMatch</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>XY-Dept2</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>XYZ Employee</t>
+  </si>
+  <si>
     <t>fay.emp27@xyz.com</t>
   </si>
   <si>
@@ -191,406 +260,337 @@
     <t>tea.emp41@xyz.com</t>
   </si>
   <si>
+    <t>john.emp12@xyz.com</t>
+  </si>
+  <si>
+    <t>will.emp1010@xyz.com</t>
+  </si>
+  <si>
+    <t>roe.emp251@xyz.com</t>
+  </si>
+  <si>
+    <t>larry.emp333@xyz.com</t>
+  </si>
+  <si>
+    <t>shark.emp421@xyz.com</t>
+  </si>
+  <si>
+    <t>Fay</t>
+  </si>
+  <si>
+    <t>Vinny</t>
+  </si>
+  <si>
+    <t>Tiffy</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>Zhan</t>
+  </si>
+  <si>
+    <t>Xong</t>
+  </si>
+  <si>
+    <t>Ant</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Cassy</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Ally</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Fay Emp27</t>
+  </si>
+  <si>
+    <t>Vinny Emp28</t>
+  </si>
+  <si>
+    <t>Tiffy Emp29</t>
+  </si>
+  <si>
+    <t>Geo Emp30</t>
+  </si>
+  <si>
+    <t>Zhan Emp31</t>
+  </si>
+  <si>
+    <t>Xong Emp32</t>
+  </si>
+  <si>
+    <t>Ant Emp35</t>
+  </si>
+  <si>
+    <t>Abby Emp36</t>
+  </si>
+  <si>
+    <t>Jenny Emp37</t>
+  </si>
+  <si>
+    <t>Cassy Emp38</t>
+  </si>
+  <si>
+    <t>Tea Emp41</t>
+  </si>
+  <si>
+    <t>John Emp1</t>
+  </si>
+  <si>
+    <t>Will Emp10</t>
+  </si>
+  <si>
+    <t>Roe Emp25</t>
+  </si>
+  <si>
+    <t>Larry Emp33</t>
+  </si>
+  <si>
+    <t>Shark Emp42</t>
+  </si>
+  <si>
+    <t>Arun Contr1</t>
+  </si>
+  <si>
+    <t>Arjun Contr1</t>
+  </si>
+  <si>
+    <t>Dan Contr1</t>
+  </si>
+  <si>
+    <t>Mac Contr1</t>
+  </si>
+  <si>
+    <t>Money Contr1</t>
+  </si>
+  <si>
+    <t>Ally Contr1</t>
+  </si>
+  <si>
+    <t>Jan Contr1</t>
+  </si>
+  <si>
+    <t>Rice Contr1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Departed</t>
+  </si>
+  <si>
+    <t>Request#97</t>
+  </si>
+  <si>
+    <t>Request#96</t>
+  </si>
+  <si>
+    <t>Request#95</t>
+  </si>
+  <si>
+    <t>Request#94</t>
+  </si>
+  <si>
+    <t>Request#93</t>
+  </si>
+  <si>
+    <t>Request#92</t>
+  </si>
+  <si>
+    <t>Request#89</t>
+  </si>
+  <si>
+    <t>Request#88</t>
+  </si>
+  <si>
+    <t>Request#87</t>
+  </si>
+  <si>
+    <t>Request#86</t>
+  </si>
+  <si>
+    <t>Request#83</t>
+  </si>
+  <si>
+    <t>Request#123</t>
+  </si>
+  <si>
+    <t>Request#114</t>
+  </si>
+  <si>
+    <t>Request#99</t>
+  </si>
+  <si>
+    <t>Request#91</t>
+  </si>
+  <si>
+    <t>Request#82</t>
+  </si>
+  <si>
+    <t>Request#81</t>
+  </si>
+  <si>
+    <t>Request#80</t>
+  </si>
+  <si>
+    <t>Request#79</t>
+  </si>
+  <si>
+    <t>Request#78</t>
+  </si>
+  <si>
+    <t>Request#77</t>
+  </si>
+  <si>
+    <t>Request#76</t>
+  </si>
+  <si>
+    <t>Request#75</t>
+  </si>
+  <si>
+    <t>Request#74</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>FAYEMP27x</t>
+  </si>
+  <si>
+    <t>VINNYEMP28x</t>
+  </si>
+  <si>
+    <t>TIFFYEMP29x</t>
+  </si>
+  <si>
+    <t>GEOEMP30x</t>
+  </si>
+  <si>
+    <t>ZHANEMP31x</t>
+  </si>
+  <si>
+    <t>XONGEMP32x</t>
+  </si>
+  <si>
+    <t>ANTEMP35x</t>
+  </si>
+  <si>
+    <t>ABBYEMP36x</t>
+  </si>
+  <si>
+    <t>JENNYEMP37x</t>
+  </si>
+  <si>
+    <t>CASSYEMP38x</t>
+  </si>
+  <si>
+    <t>TEAEMP41x</t>
+  </si>
+  <si>
+    <t>JOHNEMP1x</t>
+  </si>
+  <si>
+    <t>WILLEMP10x</t>
+  </si>
+  <si>
+    <t>ROEEMP25x</t>
+  </si>
+  <si>
+    <t>LARRYEMP33x</t>
+  </si>
+  <si>
+    <t>SHARKEMP42x</t>
+  </si>
+  <si>
+    <t>ARUNCONTR1X</t>
+  </si>
+  <si>
+    <t>ARJUNCONTR1X</t>
+  </si>
+  <si>
+    <t>DANCONTR1X</t>
+  </si>
+  <si>
+    <t>MACCONTR1X</t>
+  </si>
+  <si>
+    <t>MONEYCONTR1X</t>
+  </si>
+  <si>
+    <t>ALLYCONTR1X</t>
+  </si>
+  <si>
+    <t>JANCONTR1X</t>
+  </si>
+  <si>
+    <t>RICECONTR1X</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Data &amp; Analytics</t>
+  </si>
+  <si>
+    <t>Integrations</t>
+  </si>
+  <si>
     <t>AuditCheck</t>
-  </si>
-  <si>
-    <t>XYZ Employee</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>FAYEMP27x</t>
-  </si>
-  <si>
-    <t>VINNYEMP28x</t>
-  </si>
-  <si>
-    <t>TIFFYEMP29x</t>
-  </si>
-  <si>
-    <t>GEOEMP30x</t>
-  </si>
-  <si>
-    <t>ZHANEMP31x</t>
-  </si>
-  <si>
-    <t>XONGEMP32x</t>
-  </si>
-  <si>
-    <t>ANTEMP35x</t>
-  </si>
-  <si>
-    <t>ABBYEMP36x</t>
-  </si>
-  <si>
-    <t>JENNYEMP37x</t>
-  </si>
-  <si>
-    <t>CASSYEMP38x</t>
-  </si>
-  <si>
-    <t>TEAEMP41x</t>
-  </si>
-  <si>
-    <t>JOHNEMP1x</t>
-  </si>
-  <si>
-    <t>WILLEMP10x</t>
-  </si>
-  <si>
-    <t>ROEEMP25x</t>
-  </si>
-  <si>
-    <t>LARRYEMP33x</t>
-  </si>
-  <si>
-    <t>SHARKEMP42x</t>
-  </si>
-  <si>
-    <t>ARUNCONTR1X</t>
-  </si>
-  <si>
-    <t>ARJUNCONTR1X</t>
-  </si>
-  <si>
-    <t>DANCONTR1X</t>
-  </si>
-  <si>
-    <t>MACCONTR1X</t>
-  </si>
-  <si>
-    <t>MONEYCONTR1X</t>
-  </si>
-  <si>
-    <t>ALLYCONTR1X</t>
-  </si>
-  <si>
-    <t>JANCONTR1X</t>
-  </si>
-  <si>
-    <t>RICECONTR1X</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>XY-Dept2</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Data &amp; Analytics</t>
-  </si>
-  <si>
-    <t>Integrations</t>
-  </si>
-  <si>
-    <t>Fay</t>
-  </si>
-  <si>
-    <t>Vinny</t>
-  </si>
-  <si>
-    <t>Tiffy</t>
-  </si>
-  <si>
-    <t>Geo</t>
-  </si>
-  <si>
-    <t>Zhan</t>
-  </si>
-  <si>
-    <t>Xong</t>
-  </si>
-  <si>
-    <t>Ant</t>
-  </si>
-  <si>
-    <t>Abby</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>Cassy</t>
-  </si>
-  <si>
-    <t>Tea</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Roe</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Shark</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>Mac</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Ally</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Salesforce</t>
-  </si>
-  <si>
-    <t>AI/ML</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>AZURE</t>
-  </si>
-  <si>
-    <t>CRM product</t>
-  </si>
-  <si>
-    <t>HR_Match</t>
-  </si>
-  <si>
-    <t>MisMatch</t>
-  </si>
-  <si>
-    <t>Emp1</t>
-  </si>
-  <si>
-    <t>Emp10</t>
-  </si>
-  <si>
-    <t>Emp25</t>
-  </si>
-  <si>
-    <t>Emp33</t>
-  </si>
-  <si>
-    <t>Emp42</t>
-  </si>
-  <si>
-    <t>Contr1</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>john.emp12@xyz.com</t>
-  </si>
-  <si>
-    <t>will.emp1010@xyz.com</t>
-  </si>
-  <si>
-    <t>roe.emp251@xyz.com</t>
-  </si>
-  <si>
-    <t>larry.emp333@xyz.com</t>
-  </si>
-  <si>
-    <t>shark.emp421@xyz.com</t>
-  </si>
-  <si>
-    <t>Request#97</t>
-  </si>
-  <si>
-    <t>Request#96</t>
-  </si>
-  <si>
-    <t>Request#95</t>
-  </si>
-  <si>
-    <t>Request#94</t>
-  </si>
-  <si>
-    <t>Request#93</t>
-  </si>
-  <si>
-    <t>Request#92</t>
-  </si>
-  <si>
-    <t>Request#89</t>
-  </si>
-  <si>
-    <t>Request#88</t>
-  </si>
-  <si>
-    <t>Request#87</t>
-  </si>
-  <si>
-    <t>Request#86</t>
-  </si>
-  <si>
-    <t>Request#83</t>
-  </si>
-  <si>
-    <t>Request#123</t>
-  </si>
-  <si>
-    <t>Request#114</t>
-  </si>
-  <si>
-    <t>Request#99</t>
-  </si>
-  <si>
-    <t>Request#91</t>
-  </si>
-  <si>
-    <t>Request#82</t>
-  </si>
-  <si>
-    <t>Request#81</t>
-  </si>
-  <si>
-    <t>Request#80</t>
-  </si>
-  <si>
-    <t>Request#79</t>
-  </si>
-  <si>
-    <t>Request#78</t>
-  </si>
-  <si>
-    <t>Request#77</t>
-  </si>
-  <si>
-    <t>Request#76</t>
-  </si>
-  <si>
-    <t>Request#75</t>
-  </si>
-  <si>
-    <t>Request#74</t>
-  </si>
-  <si>
-    <t>Sat.Emp5@xyz.com</t>
-  </si>
-  <si>
-    <t>Pal.Emp15@xyz.com</t>
-  </si>
-  <si>
-    <t>Departed</t>
-  </si>
-  <si>
-    <t>Fay Emp27</t>
-  </si>
-  <si>
-    <t>Vinny Emp28</t>
-  </si>
-  <si>
-    <t>Tiffy Emp29</t>
-  </si>
-  <si>
-    <t>Geo Emp30</t>
-  </si>
-  <si>
-    <t>Zhan Emp31</t>
-  </si>
-  <si>
-    <t>Xong Emp32</t>
-  </si>
-  <si>
-    <t>Ant Emp35</t>
-  </si>
-  <si>
-    <t>Abby Emp36</t>
-  </si>
-  <si>
-    <t>Jenny Emp37</t>
-  </si>
-  <si>
-    <t>Cassy Emp38</t>
-  </si>
-  <si>
-    <t>Tea Emp41</t>
-  </si>
-  <si>
-    <t>John Emp1</t>
-  </si>
-  <si>
-    <t>Will Emp10</t>
-  </si>
-  <si>
-    <t>Roe Emp25</t>
-  </si>
-  <si>
-    <t>Larry Emp33</t>
-  </si>
-  <si>
-    <t>Shark Emp42</t>
-  </si>
-  <si>
-    <t>Arun Contr1</t>
-  </si>
-  <si>
-    <t>Arjun Contr1</t>
-  </si>
-  <si>
-    <t>Dan Contr1</t>
-  </si>
-  <si>
-    <t>Mac Contr1</t>
-  </si>
-  <si>
-    <t>Money Contr1</t>
-  </si>
-  <si>
-    <t>Ally Contr1</t>
-  </si>
-  <si>
-    <t>Jan Contr1</t>
-  </si>
-  <si>
-    <t>Rice Contr1</t>
   </si>
   <si>
     <t>AD_Group</t>
@@ -1106,88 +1106,88 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="U2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V2">
+        <v>1027</v>
+      </c>
+      <c r="W2">
+        <v>106</v>
+      </c>
+      <c r="X2" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2">
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB2">
+        <v>109</v>
+      </c>
+      <c r="AC2">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" t="s">
-        <v>88</v>
-      </c>
-      <c r="S2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W2">
-        <v>1027</v>
-      </c>
-      <c r="X2" s="2">
-        <v>43466</v>
-      </c>
-      <c r="Y2">
-        <v>106</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2">
-        <v>109</v>
-      </c>
       <c r="AD2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE2" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="AF2" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="AG2">
         <v>106</v>
@@ -1196,13 +1196,13 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI2" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="AJ2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -1210,91 +1210,91 @@
         <v>171</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S3" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T3" s="2">
+        <v>43103</v>
+      </c>
+      <c r="U3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3">
+        <v>1028</v>
+      </c>
+      <c r="W3">
+        <v>106</v>
+      </c>
+      <c r="X3" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3">
+      <c r="Z3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB3">
+        <v>109</v>
+      </c>
+      <c r="AC3">
         <v>108</v>
       </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" t="s">
-        <v>94</v>
-      </c>
-      <c r="T3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V3" t="s">
-        <v>121</v>
-      </c>
-      <c r="W3">
-        <v>1028</v>
-      </c>
-      <c r="X3" s="2">
-        <v>43103</v>
-      </c>
-      <c r="Y3">
-        <v>106</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3">
-        <v>109</v>
-      </c>
       <c r="AD3" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE3" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="AF3" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="AG3">
         <v>106</v>
@@ -1303,102 +1303,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI3" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="AJ3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK3" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>179</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T4" s="2">
+        <v>42738</v>
+      </c>
+      <c r="U4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4">
+        <v>1029</v>
+      </c>
+      <c r="W4">
+        <v>106</v>
+      </c>
+      <c r="X4" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4">
+      <c r="Z4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB4">
+        <v>109</v>
+      </c>
+      <c r="AC4">
         <v>108</v>
       </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K4" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="AD4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF4" t="s">
         <v>88</v>
-      </c>
-      <c r="R4" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" t="s">
-        <v>99</v>
-      </c>
-      <c r="V4" t="s">
-        <v>122</v>
-      </c>
-      <c r="W4">
-        <v>1029</v>
-      </c>
-      <c r="X4" s="2">
-        <v>42738</v>
-      </c>
-      <c r="Y4">
-        <v>106</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4">
-        <v>109</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>143</v>
       </c>
       <c r="AG4">
         <v>106</v>
@@ -1407,102 +1407,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI4" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="AJ4" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK4" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>187</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T5" s="2">
+        <v>42372</v>
+      </c>
+      <c r="U5" t="s">
+        <v>141</v>
+      </c>
+      <c r="V5">
+        <v>1030</v>
+      </c>
+      <c r="W5">
+        <v>106</v>
+      </c>
+      <c r="X5" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5">
+      <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB5">
+        <v>109</v>
+      </c>
+      <c r="AC5">
         <v>108</v>
       </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K5" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S5" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" t="s">
-        <v>123</v>
-      </c>
-      <c r="W5">
-        <v>1030</v>
-      </c>
-      <c r="X5" s="2">
-        <v>42372</v>
-      </c>
-      <c r="Y5">
-        <v>106</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5">
-        <v>109</v>
-      </c>
       <c r="AD5" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE5" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="AF5" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="AG5">
         <v>106</v>
@@ -1511,102 +1511,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI5" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="AJ5" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK5" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>195</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" t="s">
+        <v>137</v>
+      </c>
+      <c r="S6" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T6" s="2">
+        <v>43103</v>
+      </c>
+      <c r="U6" t="s">
+        <v>142</v>
+      </c>
+      <c r="V6">
+        <v>1031</v>
+      </c>
+      <c r="W6">
+        <v>106</v>
+      </c>
+      <c r="X6" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6">
+      <c r="Z6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB6">
+        <v>109</v>
+      </c>
+      <c r="AC6">
         <v>108</v>
       </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K6" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>88</v>
-      </c>
-      <c r="R6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" t="s">
-        <v>101</v>
-      </c>
-      <c r="U6" t="s">
-        <v>101</v>
-      </c>
-      <c r="V6" t="s">
-        <v>124</v>
-      </c>
-      <c r="W6">
-        <v>1031</v>
-      </c>
-      <c r="X6" s="2">
-        <v>43103</v>
-      </c>
-      <c r="Y6">
-        <v>106</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6">
-        <v>109</v>
-      </c>
       <c r="AD6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE6" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="AF6" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="AG6">
         <v>106</v>
@@ -1615,102 +1615,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI6" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="AJ6" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK6" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>206</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T7" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U7" t="s">
+        <v>143</v>
+      </c>
+      <c r="V7">
+        <v>1032</v>
+      </c>
+      <c r="W7">
+        <v>106</v>
+      </c>
+      <c r="X7" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7">
+      <c r="Z7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB7">
+        <v>109</v>
+      </c>
+      <c r="AC7">
         <v>108</v>
       </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K7" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" t="s">
-        <v>88</v>
-      </c>
-      <c r="S7" t="s">
-        <v>94</v>
-      </c>
-      <c r="T7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U7" t="s">
-        <v>102</v>
-      </c>
-      <c r="V7" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7">
-        <v>1032</v>
-      </c>
-      <c r="X7" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y7">
-        <v>106</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC7">
-        <v>109</v>
-      </c>
       <c r="AD7" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE7" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="AF7" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="AG7">
         <v>106</v>
@@ -1719,102 +1719,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="AJ7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK7" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>212</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S8" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T8" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U8" t="s">
+        <v>144</v>
+      </c>
+      <c r="V8">
+        <v>1035</v>
+      </c>
+      <c r="W8">
+        <v>106</v>
+      </c>
+      <c r="X8" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8">
+      <c r="Z8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB8">
+        <v>109</v>
+      </c>
+      <c r="AC8">
         <v>108</v>
       </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K8" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>89</v>
-      </c>
-      <c r="R8" t="s">
-        <v>89</v>
-      </c>
-      <c r="S8" t="s">
-        <v>94</v>
-      </c>
-      <c r="T8" t="s">
-        <v>103</v>
-      </c>
-      <c r="U8" t="s">
-        <v>103</v>
-      </c>
-      <c r="V8" t="s">
-        <v>125</v>
-      </c>
-      <c r="W8">
-        <v>1035</v>
-      </c>
-      <c r="X8" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y8">
-        <v>106</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC8">
-        <v>109</v>
-      </c>
       <c r="AD8" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE8" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="AF8" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="AG8">
         <v>106</v>
@@ -1823,102 +1823,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI8" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="AJ8" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK8" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>214</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T9" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U9" t="s">
+        <v>145</v>
+      </c>
+      <c r="V9">
+        <v>1036</v>
+      </c>
+      <c r="W9">
+        <v>106</v>
+      </c>
+      <c r="X9" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9">
+      <c r="Z9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB9">
+        <v>109</v>
+      </c>
+      <c r="AC9">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K9" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U9" t="s">
-        <v>104</v>
-      </c>
-      <c r="V9" t="s">
-        <v>125</v>
-      </c>
-      <c r="W9">
-        <v>1036</v>
-      </c>
-      <c r="X9" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y9">
-        <v>106</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC9">
-        <v>109</v>
-      </c>
       <c r="AD9" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE9" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="AF9" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="AG9">
         <v>106</v>
@@ -1927,102 +1927,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI9" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK9" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>216</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" t="s">
+        <v>137</v>
+      </c>
+      <c r="S10" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T10" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U10" t="s">
+        <v>146</v>
+      </c>
+      <c r="V10">
+        <v>1037</v>
+      </c>
+      <c r="W10">
+        <v>106</v>
+      </c>
+      <c r="X10" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10">
+      <c r="Z10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB10">
+        <v>109</v>
+      </c>
+      <c r="AC10">
         <v>108</v>
       </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K10" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>89</v>
-      </c>
-      <c r="R10" t="s">
-        <v>89</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="AD10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF10" t="s">
         <v>94</v>
-      </c>
-      <c r="T10" t="s">
-        <v>105</v>
-      </c>
-      <c r="U10" t="s">
-        <v>105</v>
-      </c>
-      <c r="V10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W10">
-        <v>1037</v>
-      </c>
-      <c r="X10" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y10">
-        <v>106</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10">
-        <v>109</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>149</v>
       </c>
       <c r="AG10">
         <v>106</v>
@@ -2031,102 +2031,102 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI10" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AJ10" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK10" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>218</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T11" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U11" t="s">
+        <v>147</v>
+      </c>
+      <c r="V11">
+        <v>1038</v>
+      </c>
+      <c r="W11">
+        <v>106</v>
+      </c>
+      <c r="X11" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11">
+      <c r="Z11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB11">
+        <v>109</v>
+      </c>
+      <c r="AC11">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K11" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>89</v>
-      </c>
-      <c r="R11" t="s">
-        <v>89</v>
-      </c>
-      <c r="S11" t="s">
-        <v>94</v>
-      </c>
-      <c r="T11" t="s">
-        <v>106</v>
-      </c>
-      <c r="U11" t="s">
-        <v>106</v>
-      </c>
-      <c r="V11" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11">
-        <v>1038</v>
-      </c>
-      <c r="X11" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y11">
-        <v>106</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC11">
-        <v>109</v>
-      </c>
       <c r="AD11" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE11" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="AF11" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AG11">
         <v>106</v>
@@ -2135,13 +2135,13 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI11" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AJ11" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK11" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -2149,91 +2149,91 @@
         <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S12" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="T12" s="2">
+        <v>43479</v>
+      </c>
+      <c r="U12" t="s">
+        <v>148</v>
+      </c>
+      <c r="V12">
+        <v>1041</v>
+      </c>
+      <c r="W12">
+        <v>106</v>
+      </c>
+      <c r="X12" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12">
+      <c r="Z12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB12">
+        <v>109</v>
+      </c>
+      <c r="AC12">
         <v>108</v>
       </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K12" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>89</v>
-      </c>
-      <c r="R12" t="s">
-        <v>89</v>
-      </c>
-      <c r="S12" t="s">
-        <v>94</v>
-      </c>
-      <c r="T12" t="s">
-        <v>107</v>
-      </c>
-      <c r="U12" t="s">
-        <v>107</v>
-      </c>
-      <c r="V12" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12">
-        <v>1041</v>
-      </c>
-      <c r="X12" s="2">
-        <v>43479</v>
-      </c>
-      <c r="Y12">
-        <v>106</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC12">
-        <v>109</v>
-      </c>
       <c r="AD12" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE12" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="AF12" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="AG12">
         <v>106</v>
@@ -2242,282 +2242,282 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI12" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AJ12" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK12" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44531.04186342593</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>136</v>
+      </c>
+      <c r="S13" s="2">
+        <v>44456.04341435185</v>
+      </c>
+      <c r="U13" t="s">
+        <v>149</v>
+      </c>
+      <c r="W13">
+        <v>202</v>
+      </c>
+      <c r="X13" s="2">
         <v>44334.13956018518</v>
       </c>
-      <c r="F13">
+      <c r="Z13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>44334.13956018518</v>
+      </c>
+      <c r="AB13">
+        <v>109</v>
+      </c>
+      <c r="AC13">
         <v>231</v>
       </c>
-      <c r="J13" s="2">
-        <v>44334.13956018518</v>
-      </c>
-      <c r="K13" s="2">
-        <v>44531.04186342593</v>
-      </c>
-      <c r="L13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="2">
-        <v>44456.04341435185</v>
-      </c>
-      <c r="P13" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>89</v>
-      </c>
-      <c r="R13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U13" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y13">
+      <c r="AD13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG13">
         <v>34</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC13">
-        <v>109</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG13">
-        <v>202</v>
       </c>
       <c r="AH13" s="2">
         <v>44363.04177083333</v>
       </c>
       <c r="AK13" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>58</v>
       </c>
-      <c r="D14" s="2">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U14" t="s">
+        <v>150</v>
+      </c>
+      <c r="W14">
+        <v>106</v>
+      </c>
+      <c r="X14" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F14">
+      <c r="Z14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB14">
+        <v>109</v>
+      </c>
+      <c r="AC14">
         <v>108</v>
       </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K14" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" t="s">
-        <v>90</v>
-      </c>
-      <c r="U14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y14">
-        <v>106</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC14">
-        <v>109</v>
-      </c>
       <c r="AD14" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AG14">
         <v>106</v>
       </c>
       <c r="AH14" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>142</v>
       </c>
-      <c r="D15" s="2">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>136</v>
+      </c>
+      <c r="S15" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U15" t="s">
+        <v>151</v>
+      </c>
+      <c r="W15">
+        <v>106</v>
+      </c>
+      <c r="X15" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F15">
+      <c r="AA15" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB15">
+        <v>109</v>
+      </c>
+      <c r="AC15">
         <v>108</v>
       </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K15" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P15" t="s">
-        <v>77</v>
-      </c>
-      <c r="U15" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y15">
-        <v>106</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC15">
-        <v>109</v>
-      </c>
       <c r="AD15" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="AE15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AG15">
         <v>106</v>
       </c>
       <c r="AH15" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>208</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="L16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>136</v>
+      </c>
+      <c r="S16" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U16" t="s">
+        <v>152</v>
+      </c>
+      <c r="W16">
+        <v>106</v>
+      </c>
+      <c r="X16" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F16">
+      <c r="Z16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB16">
+        <v>109</v>
+      </c>
+      <c r="AC16">
         <v>108</v>
       </c>
-      <c r="J16" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K16" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>88</v>
-      </c>
-      <c r="R16" t="s">
-        <v>88</v>
-      </c>
-      <c r="U16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y16">
-        <v>106</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC16">
-        <v>109</v>
-      </c>
       <c r="AD16" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AE16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="AG16">
         <v>106</v>
@@ -2526,72 +2526,72 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AK16" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="1">
         <v>247</v>
       </c>
-      <c r="D17" s="2">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="L17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S17" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U17" t="s">
+        <v>153</v>
+      </c>
+      <c r="W17">
+        <v>106</v>
+      </c>
+      <c r="X17" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F17">
+      <c r="Z17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB17">
+        <v>109</v>
+      </c>
+      <c r="AC17">
         <v>108</v>
       </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K17" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P17" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>89</v>
-      </c>
-      <c r="R17" t="s">
-        <v>89</v>
-      </c>
-      <c r="U17" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y17">
-        <v>106</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC17">
-        <v>109</v>
-      </c>
       <c r="AD17" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="AE17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AG17">
         <v>106</v>
@@ -2600,512 +2600,512 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AK17" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="1">
         <v>248</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U18" t="s">
+        <v>154</v>
+      </c>
+      <c r="W18">
+        <v>106</v>
+      </c>
+      <c r="X18" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F18">
+      <c r="AA18" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB18">
+        <v>109</v>
+      </c>
+      <c r="AC18">
         <v>108</v>
       </c>
-      <c r="J18" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K18" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="M18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P18" t="s">
-        <v>80</v>
-      </c>
-      <c r="U18" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y18">
-        <v>106</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC18">
-        <v>109</v>
-      </c>
       <c r="AD18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>180</v>
       </c>
       <c r="AG18">
         <v>106</v>
       </c>
       <c r="AH18" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="1">
         <v>249</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="M19" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" t="s">
+        <v>129</v>
+      </c>
+      <c r="S19" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U19" t="s">
+        <v>155</v>
+      </c>
+      <c r="W19">
+        <v>106</v>
+      </c>
+      <c r="X19" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F19">
+      <c r="Z19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB19">
+        <v>109</v>
+      </c>
+      <c r="AC19">
         <v>108</v>
       </c>
-      <c r="J19" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K19" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="M19" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y19">
-        <v>106</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC19">
-        <v>109</v>
-      </c>
       <c r="AD19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>181</v>
       </c>
       <c r="AG19">
         <v>106</v>
       </c>
       <c r="AH19" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="1">
         <v>250</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="M20" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U20" t="s">
+        <v>156</v>
+      </c>
+      <c r="W20">
+        <v>106</v>
+      </c>
+      <c r="X20" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F20">
+      <c r="AA20" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB20">
+        <v>109</v>
+      </c>
+      <c r="AC20">
         <v>108</v>
       </c>
-      <c r="J20" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K20" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="M20" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P20" t="s">
-        <v>82</v>
-      </c>
-      <c r="U20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y20">
-        <v>106</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC20">
-        <v>109</v>
-      </c>
       <c r="AD20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>182</v>
       </c>
       <c r="AG20">
         <v>106</v>
       </c>
       <c r="AH20" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="1">
         <v>251</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="M21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>136</v>
+      </c>
+      <c r="S21" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U21" t="s">
+        <v>157</v>
+      </c>
+      <c r="W21">
+        <v>106</v>
+      </c>
+      <c r="X21" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F21">
+      <c r="Z21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB21">
+        <v>109</v>
+      </c>
+      <c r="AC21">
         <v>108</v>
       </c>
-      <c r="J21" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K21" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>92</v>
-      </c>
-      <c r="R21" t="s">
-        <v>92</v>
-      </c>
-      <c r="U21" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y21">
-        <v>106</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC21">
-        <v>109</v>
-      </c>
       <c r="AD21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>183</v>
       </c>
       <c r="AG21">
         <v>106</v>
       </c>
       <c r="AH21" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="1">
         <v>260</v>
       </c>
-      <c r="D22" s="2">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="M22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" t="s">
+        <v>110</v>
+      </c>
+      <c r="O22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>136</v>
+      </c>
+      <c r="S22" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U22" t="s">
+        <v>158</v>
+      </c>
+      <c r="W22">
+        <v>106</v>
+      </c>
+      <c r="X22" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F22">
+      <c r="Z22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB22">
+        <v>109</v>
+      </c>
+      <c r="AC22">
         <v>108</v>
       </c>
-      <c r="H22" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K22" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" t="s">
-        <v>62</v>
-      </c>
-      <c r="N22" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>91</v>
-      </c>
-      <c r="R22" t="s">
-        <v>91</v>
-      </c>
-      <c r="U22" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y22">
-        <v>106</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC22">
-        <v>109</v>
-      </c>
       <c r="AD22" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>184</v>
       </c>
       <c r="AG22">
         <v>106</v>
       </c>
       <c r="AH22" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="1">
         <v>269</v>
       </c>
-      <c r="D23" s="2">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="M23" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U23" t="s">
+        <v>159</v>
+      </c>
+      <c r="W23">
+        <v>106</v>
+      </c>
+      <c r="X23" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F23">
+      <c r="AA23" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB23">
+        <v>109</v>
+      </c>
+      <c r="AC23">
         <v>108</v>
       </c>
-      <c r="H23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K23" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N23" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P23" t="s">
-        <v>85</v>
-      </c>
-      <c r="U23" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y23">
-        <v>106</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC23">
-        <v>109</v>
-      </c>
       <c r="AD23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF23" t="s">
         <v>162</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>185</v>
       </c>
       <c r="AG23">
         <v>106</v>
       </c>
       <c r="AH23" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="1">
         <v>278</v>
       </c>
-      <c r="D24" s="2">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="M24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>136</v>
+      </c>
+      <c r="S24" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U24" t="s">
+        <v>160</v>
+      </c>
+      <c r="W24">
+        <v>106</v>
+      </c>
+      <c r="X24" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F24">
+      <c r="Z24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB24">
+        <v>109</v>
+      </c>
+      <c r="AC24">
         <v>108</v>
       </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K24" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L24" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P24" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>93</v>
-      </c>
-      <c r="R24" t="s">
-        <v>93</v>
-      </c>
-      <c r="U24" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y24">
-        <v>106</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC24">
-        <v>109</v>
-      </c>
       <c r="AD24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>186</v>
       </c>
       <c r="AG24">
         <v>106</v>
       </c>
       <c r="AH24" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="1">
         <v>287</v>
       </c>
-      <c r="D25" s="2">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="M25" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>136</v>
+      </c>
+      <c r="S25" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U25" t="s">
+        <v>161</v>
+      </c>
+      <c r="W25">
+        <v>106</v>
+      </c>
+      <c r="X25" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F25">
+      <c r="Z25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB25">
+        <v>109</v>
+      </c>
+      <c r="AC25">
         <v>108</v>
       </c>
-      <c r="H25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K25" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L25" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P25" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>92</v>
-      </c>
-      <c r="R25" t="s">
-        <v>92</v>
-      </c>
-      <c r="U25" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y25">
-        <v>106</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC25">
-        <v>109</v>
-      </c>
       <c r="AD25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>187</v>
       </c>
       <c r="AG25">
         <v>106</v>
       </c>
       <c r="AH25" s="2">
         <v>44459.54693287037</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3123,22 +3123,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3146,19 +3146,19 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3166,19 +3166,19 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3186,19 +3186,19 @@
         <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3206,19 +3206,19 @@
         <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3226,22 +3226,22 @@
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3249,22 +3249,22 @@
         <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3272,22 +3272,22 @@
         <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3295,19 +3295,19 @@
         <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
         <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3315,22 +3315,22 @@
         <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
         <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3338,19 +3338,19 @@
         <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
         <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3358,19 +3358,19 @@
         <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
         <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3378,19 +3378,19 @@
         <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
         <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3398,19 +3398,19 @@
         <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
         <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3418,22 +3418,22 @@
         <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
         <v>197</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3441,22 +3441,22 @@
         <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
         <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3464,22 +3464,22 @@
         <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3487,19 +3487,19 @@
         <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
         <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3507,22 +3507,22 @@
         <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3530,19 +3530,19 @@
         <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
         <v>193</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3550,19 +3550,19 @@
         <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
         <v>194</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3570,19 +3570,19 @@
         <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>195</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3590,19 +3590,19 @@
         <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
         <v>196</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3610,22 +3610,22 @@
         <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
         <v>197</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3633,22 +3633,22 @@
         <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
         <v>198</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3656,22 +3656,22 @@
         <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>199</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3679,19 +3679,19 @@
         <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>200</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3699,19 +3699,19 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3719,19 +3719,19 @@
         <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
         <v>194</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3739,19 +3739,19 @@
         <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
         <v>195</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3759,19 +3759,19 @@
         <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3779,22 +3779,22 @@
         <v>184</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3802,22 +3802,22 @@
         <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3825,22 +3825,22 @@
         <v>186</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>199</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3848,19 +3848,19 @@
         <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
         <v>200</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3868,19 +3868,19 @@
         <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
         <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3888,19 +3888,19 @@
         <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
         <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3908,19 +3908,19 @@
         <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
         <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3928,19 +3928,19 @@
         <v>191</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3948,22 +3948,22 @@
         <v>192</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3971,22 +3971,22 @@
         <v>193</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
         <v>198</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3994,22 +3994,22 @@
         <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
         <v>199</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4017,19 +4017,19 @@
         <v>195</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
         <v>200</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G43" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4037,19 +4037,19 @@
         <v>196</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>193</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4057,19 +4057,19 @@
         <v>197</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
         <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4077,19 +4077,19 @@
         <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
         <v>195</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4097,19 +4097,19 @@
         <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
         <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4117,22 +4117,22 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
         <v>197</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4140,22 +4140,22 @@
         <v>201</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4163,22 +4163,22 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
         <v>199</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4186,19 +4186,19 @@
         <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
         <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4206,22 +4206,22 @@
         <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
         <v>201</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4229,19 +4229,19 @@
         <v>205</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
         <v>193</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4249,19 +4249,19 @@
         <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
         <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4269,19 +4269,19 @@
         <v>211</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
         <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4289,19 +4289,19 @@
         <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
         <v>194</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G56" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4309,19 +4309,19 @@
         <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
         <v>193</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4329,19 +4329,19 @@
         <v>214</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
         <v>194</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4349,19 +4349,19 @@
         <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
         <v>193</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4369,19 +4369,19 @@
         <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
         <v>194</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4389,19 +4389,19 @@
         <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
         <v>193</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G61" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4409,19 +4409,19 @@
         <v>218</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
         <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4429,19 +4429,19 @@
         <v>230</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
         <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G63" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4449,19 +4449,19 @@
         <v>231</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
         <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G64" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4469,19 +4469,19 @@
         <v>232</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
         <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4489,19 +4489,19 @@
         <v>233</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
         <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4509,22 +4509,22 @@
         <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
         <v>197</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4532,22 +4532,22 @@
         <v>235</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4555,22 +4555,22 @@
         <v>236</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
         <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4578,19 +4578,19 @@
         <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
         <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G70" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4598,22 +4598,22 @@
         <v>238</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
         <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4621,19 +4621,19 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
         <v>193</v>
       </c>
       <c r="E72" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G72" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4641,19 +4641,19 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G73" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4661,19 +4661,19 @@
         <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
         <v>193</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G74" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4681,19 +4681,19 @@
         <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
         <v>194</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G75" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4701,19 +4701,19 @@
         <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
         <v>195</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G76" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4721,19 +4721,19 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
         <v>196</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G77" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4741,22 +4741,22 @@
         <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
         <v>197</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4764,22 +4764,22 @@
         <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
         <v>198</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4787,22 +4787,22 @@
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
         <v>199</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4810,19 +4810,19 @@
         <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
         <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G81" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4830,22 +4830,22 @@
         <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
         <v>201</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4853,19 +4853,19 @@
         <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
         <v>193</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G83" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4873,19 +4873,19 @@
         <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
         <v>194</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G84" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4893,19 +4893,19 @@
         <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D85" t="s">
         <v>195</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G85" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4913,19 +4913,19 @@
         <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D86" t="s">
         <v>196</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G86" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4933,22 +4933,22 @@
         <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
         <v>197</v>
       </c>
       <c r="E87" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4956,22 +4956,22 @@
         <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D88" t="s">
         <v>198</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4979,22 +4979,22 @@
         <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
         <v>199</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5002,19 +5002,19 @@
         <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D90" t="s">
         <v>200</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G90" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5022,22 +5022,22 @@
         <v>142</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
         <v>201</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5045,19 +5045,19 @@
         <v>207</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D92" t="s">
         <v>193</v>
       </c>
       <c r="E92" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G92" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5065,19 +5065,19 @@
         <v>208</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D93" t="s">
         <v>194</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G93" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5085,19 +5085,19 @@
         <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D94" t="s">
         <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G94" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5105,19 +5105,19 @@
         <v>240</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D95" t="s">
         <v>194</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5125,19 +5125,19 @@
         <v>241</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D96" t="s">
         <v>195</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G96" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5145,19 +5145,19 @@
         <v>242</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D97" t="s">
         <v>196</v>
       </c>
       <c r="E97" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G97" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5165,22 +5165,22 @@
         <v>243</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D98" t="s">
         <v>197</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F98" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5188,22 +5188,22 @@
         <v>244</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D99" t="s">
         <v>198</v>
       </c>
       <c r="E99" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F99" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5211,22 +5211,22 @@
         <v>245</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D100" t="s">
         <v>199</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5234,19 +5234,19 @@
         <v>246</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D101" t="s">
         <v>200</v>
       </c>
       <c r="E101" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G101" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5254,22 +5254,22 @@
         <v>247</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D102" t="s">
         <v>201</v>
       </c>
       <c r="E102" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5277,13 +5277,13 @@
         <v>248</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="G103" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5291,13 +5291,13 @@
         <v>249</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="G104" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5305,13 +5305,13 @@
         <v>250</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="G105" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5319,19 +5319,19 @@
         <v>251</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
         <v>193</v>
       </c>
       <c r="E106" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G106" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5339,19 +5339,19 @@
         <v>252</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D107" t="s">
         <v>193</v>
       </c>
       <c r="E107" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G107" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5359,19 +5359,19 @@
         <v>253</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
         <v>194</v>
       </c>
       <c r="E108" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G108" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5379,19 +5379,19 @@
         <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C109" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
         <v>195</v>
       </c>
       <c r="E109" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G109" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5399,19 +5399,19 @@
         <v>255</v>
       </c>
       <c r="B110" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D110" t="s">
         <v>196</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G110" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5419,22 +5419,22 @@
         <v>256</v>
       </c>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D111" t="s">
         <v>197</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F111" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5442,22 +5442,22 @@
         <v>257</v>
       </c>
       <c r="B112" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
         <v>198</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F112" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5465,22 +5465,22 @@
         <v>258</v>
       </c>
       <c r="B113" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C113" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D113" t="s">
         <v>199</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F113" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5488,19 +5488,19 @@
         <v>259</v>
       </c>
       <c r="B114" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D114" t="s">
         <v>200</v>
       </c>
       <c r="E114" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G114" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5508,22 +5508,22 @@
         <v>260</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D115" t="s">
         <v>201</v>
       </c>
       <c r="E115" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F115" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5531,19 +5531,19 @@
         <v>261</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C116" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D116" t="s">
         <v>193</v>
       </c>
       <c r="E116" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G116" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5551,19 +5551,19 @@
         <v>262</v>
       </c>
       <c r="B117" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D117" t="s">
         <v>194</v>
       </c>
       <c r="E117" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G117" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5571,19 +5571,19 @@
         <v>263</v>
       </c>
       <c r="B118" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D118" t="s">
         <v>195</v>
       </c>
       <c r="E118" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G118" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5591,19 +5591,19 @@
         <v>264</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D119" t="s">
         <v>196</v>
       </c>
       <c r="E119" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G119" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5611,22 +5611,22 @@
         <v>265</v>
       </c>
       <c r="B120" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D120" t="s">
         <v>197</v>
       </c>
       <c r="E120" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F120" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5634,22 +5634,22 @@
         <v>266</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D121" t="s">
         <v>198</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F121" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5657,22 +5657,22 @@
         <v>267</v>
       </c>
       <c r="B122" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C122" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D122" t="s">
         <v>199</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F122" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5680,19 +5680,19 @@
         <v>268</v>
       </c>
       <c r="B123" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C123" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D123" t="s">
         <v>200</v>
       </c>
       <c r="E123" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G123" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5700,22 +5700,22 @@
         <v>269</v>
       </c>
       <c r="B124" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D124" t="s">
         <v>201</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F124" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5723,19 +5723,19 @@
         <v>270</v>
       </c>
       <c r="B125" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D125" t="s">
         <v>193</v>
       </c>
       <c r="E125" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G125" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5743,19 +5743,19 @@
         <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D126" t="s">
         <v>194</v>
       </c>
       <c r="E126" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G126" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5763,19 +5763,19 @@
         <v>272</v>
       </c>
       <c r="B127" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C127" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D127" t="s">
         <v>195</v>
       </c>
       <c r="E127" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G127" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5783,19 +5783,19 @@
         <v>273</v>
       </c>
       <c r="B128" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C128" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D128" t="s">
         <v>196</v>
       </c>
       <c r="E128" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G128" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5803,22 +5803,22 @@
         <v>274</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D129" t="s">
         <v>197</v>
       </c>
       <c r="E129" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F129" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5826,22 +5826,22 @@
         <v>275</v>
       </c>
       <c r="B130" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C130" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D130" t="s">
         <v>198</v>
       </c>
       <c r="E130" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F130" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5849,22 +5849,22 @@
         <v>276</v>
       </c>
       <c r="B131" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C131" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D131" t="s">
         <v>199</v>
       </c>
       <c r="E131" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F131" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5872,19 +5872,19 @@
         <v>277</v>
       </c>
       <c r="B132" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C132" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
         <v>200</v>
       </c>
       <c r="E132" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G132" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5892,22 +5892,22 @@
         <v>278</v>
       </c>
       <c r="B133" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D133" t="s">
         <v>201</v>
       </c>
       <c r="E133" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F133" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5915,19 +5915,19 @@
         <v>279</v>
       </c>
       <c r="B134" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D134" t="s">
         <v>193</v>
       </c>
       <c r="E134" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G134" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5935,19 +5935,19 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D135" t="s">
         <v>194</v>
       </c>
       <c r="E135" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G135" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5955,19 +5955,19 @@
         <v>281</v>
       </c>
       <c r="B136" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D136" t="s">
         <v>195</v>
       </c>
       <c r="E136" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G136" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5975,19 +5975,19 @@
         <v>282</v>
       </c>
       <c r="B137" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D137" t="s">
         <v>196</v>
       </c>
       <c r="E137" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G137" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5995,22 +5995,22 @@
         <v>283</v>
       </c>
       <c r="B138" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C138" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D138" t="s">
         <v>197</v>
       </c>
       <c r="E138" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F138" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -6018,22 +6018,22 @@
         <v>284</v>
       </c>
       <c r="B139" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C139" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D139" t="s">
         <v>198</v>
       </c>
       <c r="E139" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F139" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -6041,22 +6041,22 @@
         <v>285</v>
       </c>
       <c r="B140" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C140" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D140" t="s">
         <v>199</v>
       </c>
       <c r="E140" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F140" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -6064,19 +6064,19 @@
         <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D141" t="s">
         <v>200</v>
       </c>
       <c r="E141" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G141" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -6084,22 +6084,22 @@
         <v>287</v>
       </c>
       <c r="B142" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C142" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D142" t="s">
         <v>201</v>
       </c>
       <c r="E142" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F142" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
